--- a/SQL_struct.xlsx
+++ b/SQL_struct.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\project\my-big-data\MyBigData_PHP7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\project\2020_MyBigData\MyBigData_help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF99B0C-C081-4563-A38E-EE4768C66B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40B8DD6-8DC5-4420-AA43-517DB865159C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2745" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{A4543C81-238A-41EC-BB0C-9F4E313C1026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{A4543C81-238A-41EC-BB0C-9F4E313C1026}"/>
   </bookViews>
   <sheets>
-    <sheet name="binary_relationship" sheetId="1" r:id="rId1"/>
-    <sheet name="global_data_record" sheetId="2" r:id="rId2"/>
-    <sheet name="string_storage" sheetId="3" r:id="rId3"/>
-    <sheet name="struct_record" sheetId="4" r:id="rId4"/>
-    <sheet name="group_record" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="global_data_record" sheetId="2" r:id="rId1"/>
+    <sheet name="binary_relationship_record" sheetId="1" r:id="rId2"/>
+    <sheet name="binary_relationship_content" sheetId="11" r:id="rId3"/>
+    <sheet name="basic_data_format" sheetId="6" r:id="rId4"/>
+    <sheet name="string_content" sheetId="3" r:id="rId5"/>
+    <sheet name="struct_record" sheetId="4" r:id="rId6"/>
+    <sheet name="struct_content" sheetId="7" r:id="rId7"/>
+    <sheet name="group_record" sheetId="5" r:id="rId8"/>
+    <sheet name="group_content" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>binary_relationship_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>global_id_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_id_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +82,128 @@
   </si>
   <si>
     <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode_type</t>
+  </si>
+  <si>
+    <t>struct_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_data_format_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学，计算机存储器的最小单位，比特……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学，C语言基本变量类型，长度（大小）：1Byte(8bit)……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学，MySQL 5.7基本变量类型，长度（大小）：……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASCII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>NOT NULL,global_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL,fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL,global_id,fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL,fk,pk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,8 +250,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,53 +570,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D242EF-235D-4FD9-BE5E-83B0630B595B}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B06D542-0EAC-414B-B574-03973AC6E802}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -507,7 +579,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -544,159 +616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8D5F67-3F28-461F-BCF6-BEB80715B0A1}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED8679-1A28-4816-B35D-32BA9DC04244}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DC8A6-C721-4243-9B4B-BEA46A32F9BB}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5A69C-C8F6-48CD-9378-88A61EB0A695}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969248E4-28D1-4DBA-ABB0-7BF8D0927684}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6144E0A6-847E-4935-AA5A-9A1DB82EFB18}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -711,7 +631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362213D1-67B9-4C5E-9E91-3F85266C0E18}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -724,4 +644,473 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D242EF-235D-4FD9-BE5E-83B0630B595B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8890B0-CF35-4C00-9866-9499710333AA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969248E4-28D1-4DBA-ABB0-7BF8D0927684}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="20.375" style="1"/>
+    <col min="4" max="4" width="57.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8D5F67-3F28-461F-BCF6-BEB80715B0A1}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED8679-1A28-4816-B35D-32BA9DC04244}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5A69C-C8F6-48CD-9378-88A61EB0A695}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DC8A6-C721-4243-9B4B-BEA46A32F9BB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018A7B1-4FFA-4F4B-BCE0-58850D32B643}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>